--- a/data/trans_orig/PER_RUIDO_INT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_RUIDO_INT-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en País Vasco</t>
+          <t>Percepción del ruido en el interior de la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2609,7 +2609,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en Andalucia</t>
+          <t>Percepción del ruido en el interior de la vivienda en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4672,7 +4672,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en C.Valenciana</t>
+          <t>Percepción del ruido en el interior de la vivienda en C.Valenciana (tasa de respuesta: 93,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6735,7 +6735,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en Barcelona</t>
+          <t>Percepción del ruido en el interior de la vivienda en Barcelona (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_RUIDO_INT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_RUIDO_INT-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7005</t>
+          <t>6901</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5241</t>
+          <t>5015</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9509</t>
+          <t>9129</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8462</t>
+          <t>7788</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>5748</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11728</t>
+          <t>10060</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>15467</t>
+          <t>14689</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>12593</t>
+          <t>11764</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>19044</t>
+          <t>17956</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18074</t>
+          <t>17035</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14622</t>
+          <t>14006</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21436</t>
+          <t>20237</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27028</t>
+          <t>22920</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23068</t>
+          <t>19366</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31328</t>
+          <t>26877</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>45102</t>
+          <t>39955</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>39762</t>
+          <t>35111</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>50717</t>
+          <t>44875</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>22,37%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>66118</t>
+          <t>58788</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62538</t>
+          <t>55449</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>70068</t>
+          <t>62264</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>72,5%</t>
+          <t>71,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,57%</t>
+          <t>67,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>76,83%</t>
+          <t>75,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>92422</t>
+          <t>87182</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>87583</t>
+          <t>83161</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>96461</t>
+          <t>91127</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>72,25%</t>
+          <t>73,95%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>68,47%</t>
+          <t>70,54%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>75,41%</t>
+          <t>77,3%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>158540</t>
+          <t>145971</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>152757</t>
+          <t>140760</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>164147</t>
+          <t>151403</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>72,36%</t>
+          <t>72,76%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>69,72%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>74,92%</t>
+          <t>75,47%</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1075,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1110,17 +1110,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41508</t>
+          <t>40087</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36115</t>
+          <t>35001</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48000</t>
+          <t>46039</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>39002</t>
+          <t>37810</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>34349</t>
+          <t>32953</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>45354</t>
+          <t>43166</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>80510</t>
+          <t>77897</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>73221</t>
+          <t>70745</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>88391</t>
+          <t>86224</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,4%</t>
         </is>
       </c>
     </row>
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86379</t>
+          <t>90361</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78996</t>
+          <t>83388</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93368</t>
+          <t>98848</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>79941</t>
+          <t>80374</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>72439</t>
+          <t>73713</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>87469</t>
+          <t>87450</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,22 +1375,22 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>166320</t>
+          <t>170735</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>156158</t>
+          <t>158694</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>177272</t>
+          <t>180878</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,72%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>335620</t>
+          <t>337767</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>326438</t>
+          <t>328575</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>343904</t>
+          <t>345990</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>72,41%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,43%</t>
+          <t>70,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>74,2%</t>
+          <t>73,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>320407</t>
+          <t>330739</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>311785</t>
+          <t>322581</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>328180</t>
+          <t>338810</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>73,67%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>70,97%</t>
+          <t>71,86%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>74,7%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>656026</t>
+          <t>668505</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>643035</t>
+          <t>655714</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>667281</t>
+          <t>681514</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>72,89%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>71,22%</t>
+          <t>71,5%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>73,91%</t>
+          <t>74,31%</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1648,32 +1648,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14701</t>
+          <t>18013</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11910</t>
+          <t>14491</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18011</t>
+          <t>21784</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18329</t>
+          <t>23953</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>14965</t>
+          <t>20175</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>21772</t>
+          <t>29488</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1718,32 +1718,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>33029</t>
+          <t>41966</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>28933</t>
+          <t>36361</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>37994</t>
+          <t>47835</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>11,23%</t>
         </is>
       </c>
     </row>
@@ -1761,32 +1761,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31373</t>
+          <t>34162</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27270</t>
+          <t>29449</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36244</t>
+          <t>39147</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1796,32 +1796,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38302</t>
+          <t>44753</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>33563</t>
+          <t>39403</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>43076</t>
+          <t>51210</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1831,32 +1831,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>69675</t>
+          <t>78915</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>63016</t>
+          <t>71048</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>76747</t>
+          <t>85896</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>20,16%</t>
         </is>
       </c>
     </row>
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>109181</t>
+          <t>132409</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>103910</t>
+          <t>126821</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>113987</t>
+          <t>138208</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>70,32%</t>
+          <t>71,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>66,93%</t>
+          <t>68,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>73,42%</t>
+          <t>74,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>143245</t>
+          <t>172749</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>137627</t>
+          <t>165464</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>148529</t>
+          <t>179679</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>71,67%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>68,53%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>74,31%</t>
+          <t>74,42%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>252427</t>
+          <t>305158</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>244989</t>
+          <t>296735</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>259720</t>
+          <t>314004</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>71,08%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>68,99%</t>
+          <t>69,65%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>73,13%</t>
+          <t>73,7%</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2104,32 +2104,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>63214</t>
+          <t>65001</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>56723</t>
+          <t>58589</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>70649</t>
+          <t>72580</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2139,32 +2139,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>65792</t>
+          <t>69551</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>59173</t>
+          <t>62470</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>72892</t>
+          <t>77223</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2174,32 +2174,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>129006</t>
+          <t>134552</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>119216</t>
+          <t>124492</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>139217</t>
+          <t>144732</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,38%</t>
         </is>
       </c>
     </row>
@@ -2217,32 +2217,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>135826</t>
+          <t>141558</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>126803</t>
+          <t>131709</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>145950</t>
+          <t>150748</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2252,32 +2252,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>145271</t>
+          <t>148047</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>135086</t>
+          <t>139455</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>155128</t>
+          <t>158431</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2287,32 +2287,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>281097</t>
+          <t>289605</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>267968</t>
+          <t>277048</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>294189</t>
+          <t>303236</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>19,64%</t>
         </is>
       </c>
     </row>
@@ -2330,32 +2330,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>510919</t>
+          <t>528964</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>499644</t>
+          <t>517580</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>521442</t>
+          <t>540288</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>71,96%</t>
+          <t>71,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>70,38%</t>
+          <t>70,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>73,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2365,32 +2365,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>556075</t>
+          <t>590670</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>543715</t>
+          <t>580098</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>567264</t>
+          <t>601600</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>72,49%</t>
+          <t>73,08%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>70,88%</t>
+          <t>71,77%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>73,95%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2400,32 +2400,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>1066994</t>
+          <t>1119634</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>1051216</t>
+          <t>1104467</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>1082044</t>
+          <t>1134849</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>72,24%</t>
+          <t>72,52%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>71,17%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>73,25%</t>
+          <t>73,51%</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13355</t>
+          <t>12350</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30053</t>
+          <t>28366</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>22091</t>
+          <t>21897</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>39310</t>
+          <t>39441</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2874,12 +2874,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>39057</t>
+          <t>38800</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>63077</t>
+          <t>64706</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2889,12 +2889,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,35%</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2917,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33830</t>
+          <t>35042</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55811</t>
+          <t>57337</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2952,12 +2952,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>68429</t>
+          <t>69529</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>93426</t>
+          <t>95081</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2987,12 +2987,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>109287</t>
+          <t>110006</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>144228</t>
+          <t>142885</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3002,12 +3002,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>22,85%</t>
         </is>
       </c>
     </row>
@@ -3030,12 +3030,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>148257</t>
+          <t>149272</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>175266</t>
+          <t>174920</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>65,19%</t>
+          <t>65,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>77,06%</t>
+          <t>76,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3065,12 +3065,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>272983</t>
+          <t>271468</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>300266</t>
+          <t>300316</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>68,6%</t>
+          <t>68,22%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>75,46%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>429224</t>
+          <t>431802</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>468342</t>
+          <t>468832</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>68,64%</t>
+          <t>69,05%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>74,89%</t>
+          <t>74,97%</t>
         </is>
       </c>
     </row>
@@ -3260,12 +3260,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34529</t>
+          <t>33672</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>86894</t>
+          <t>87051</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3275,12 +3275,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3295,12 +3295,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>49105</t>
+          <t>47528</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>106857</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3310,12 +3310,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3330,12 +3330,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>97844</t>
+          <t>101307</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>179818</t>
+          <t>179369</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,42%</t>
         </is>
       </c>
     </row>
@@ -3373,12 +3373,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>139601</t>
+          <t>140240</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>305937</t>
+          <t>304399</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3388,12 +3388,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>261357</t>
+          <t>262632</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>765350</t>
+          <t>820894</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>55,23%</t>
+          <t>59,24%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -3443,12 +3443,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>470411</t>
+          <t>472366</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1187343</t>
+          <t>1224522</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>43,81%</t>
         </is>
       </c>
     </row>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1027956</t>
+          <t>1028283</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1242997</t>
+          <t>1230884</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,94%</t>
+          <t>72,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>88,19%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>562242</t>
+          <t>523601</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1033606</t>
+          <t>1031367</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3536,12 +3536,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>37,79%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>74,59%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3556,12 +3556,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1540604</t>
+          <t>1488627</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>2188494</t>
+          <t>2188548</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>55,12%</t>
+          <t>53,26%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18414</t>
+          <t>19467</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>41282</t>
+          <t>40766</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3731,12 +3731,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>33641</t>
+          <t>34132</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>54903</t>
+          <t>56125</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3766,12 +3766,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -3786,12 +3786,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>56337</t>
+          <t>57167</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>87255</t>
+          <t>89034</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,87%</t>
         </is>
       </c>
     </row>
@@ -3829,12 +3829,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92383</t>
+          <t>91722</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>130203</t>
+          <t>130175</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3844,12 +3844,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>84103</t>
+          <t>84276</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>114626</t>
+          <t>115582</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3879,12 +3879,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3899,12 +3899,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>185468</t>
+          <t>184999</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>234806</t>
+          <t>234427</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3914,12 +3914,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>25,98%</t>
         </is>
       </c>
     </row>
@@ -3942,12 +3942,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>301332</t>
+          <t>300990</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>342309</t>
+          <t>342610</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3957,12 +3957,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>65,54%</t>
+          <t>65,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>74,45%</t>
+          <t>74,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3977,12 +3977,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>282809</t>
+          <t>282012</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>317611</t>
+          <t>317059</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3992,12 +3992,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>63,71%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>71,75%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4012,12 +4012,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>595359</t>
+          <t>594994</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>648707</t>
+          <t>648810</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>65,97%</t>
+          <t>65,93%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>71,89%</t>
         </is>
       </c>
     </row>
@@ -4172,12 +4172,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>75259</t>
+          <t>72123</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>138559</t>
+          <t>140185</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4187,12 +4187,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4207,12 +4207,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>110368</t>
+          <t>109876</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>180266</t>
+          <t>179641</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4242,12 +4242,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>210556</t>
+          <t>211974</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>311031</t>
+          <t>305357</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4257,12 +4257,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,06%</t>
         </is>
       </c>
     </row>
@@ -4285,12 +4285,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>272096</t>
+          <t>258202</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>462359</t>
+          <t>460562</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4300,12 +4300,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4320,12 +4320,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>439417</t>
+          <t>445134</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1074252</t>
+          <t>1069427</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4335,12 +4335,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>48,26%</t>
+          <t>48,04%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4355,12 +4355,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>812272</t>
+          <t>802804</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>1680096</t>
+          <t>1569683</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>36,31%</t>
         </is>
       </c>
     </row>
@@ -4398,12 +4398,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1507281</t>
+          <t>1508308</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1747977</t>
+          <t>1761885</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>71,89%</t>
+          <t>71,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>83,37%</t>
+          <t>84,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -4433,12 +4433,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>1049203</t>
+          <t>1037921</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>1622463</t>
+          <t>1615945</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>46,62%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>72,88%</t>
+          <t>72,59%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -4468,12 +4468,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>2482291</t>
+          <t>2563417</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>3262330</t>
+          <t>3262504</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>57,42%</t>
+          <t>59,3%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
@@ -6930,12 +6930,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22583</t>
+          <t>22163</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41517</t>
+          <t>42145</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -6945,12 +6945,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -6965,12 +6965,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>27833</t>
+          <t>28450</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>46079</t>
+          <t>46578</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -6980,12 +6980,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -7000,12 +7000,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>54921</t>
+          <t>55644</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>82014</t>
+          <t>81725</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -7015,12 +7015,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>37,65%</t>
+          <t>37,52%</t>
         </is>
       </c>
     </row>
@@ -7043,12 +7043,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7167</t>
+          <t>7434</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>19322</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -7058,12 +7058,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -7078,12 +7078,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11213</t>
+          <t>10985</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25177</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -7113,12 +7113,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>21251</t>
+          <t>21655</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>38115</t>
+          <t>39166</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -7128,12 +7128,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>17,98%</t>
         </is>
       </c>
     </row>
@@ -7156,12 +7156,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44220</t>
+          <t>44966</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64591</t>
+          <t>65841</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -7171,12 +7171,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>45,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>65,54%</t>
+          <t>66,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>55426</t>
+          <t>55985</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>75342</t>
+          <t>75334</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
@@ -7226,12 +7226,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>106468</t>
+          <t>106246</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>135223</t>
+          <t>134500</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7241,12 +7241,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>48,78%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>62,08%</t>
+          <t>61,75%</t>
         </is>
       </c>
     </row>
@@ -7386,12 +7386,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>100208</t>
+          <t>99797</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>125059</t>
+          <t>123888</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -7401,12 +7401,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>123923</t>
+          <t>122905</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>149005</t>
+          <t>149869</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -7456,12 +7456,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>228781</t>
+          <t>230038</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>263971</t>
+          <t>264461</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -7471,12 +7471,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>32,32%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>37,15%</t>
         </is>
       </c>
     </row>
@@ -7499,12 +7499,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75587</t>
+          <t>77342</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>99240</t>
+          <t>99438</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7514,12 +7514,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -7534,12 +7534,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>65783</t>
+          <t>66933</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>87220</t>
+          <t>88324</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7549,12 +7549,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -7569,12 +7569,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>147851</t>
+          <t>148287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>179261</t>
+          <t>180022</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7584,12 +7584,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>25,29%</t>
         </is>
       </c>
     </row>
@@ -7612,12 +7612,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>144205</t>
+          <t>146326</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>171143</t>
+          <t>171318</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -7627,12 +7627,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,9%</t>
+          <t>47,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -7647,12 +7647,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>129381</t>
+          <t>129881</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>155142</t>
+          <t>156335</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -7662,12 +7662,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>44,09%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -7682,12 +7682,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>283101</t>
+          <t>282029</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>319582</t>
+          <t>319638</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -7697,12 +7697,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>44,89%</t>
+          <t>44,9%</t>
         </is>
       </c>
     </row>
@@ -7842,12 +7842,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>73386</t>
+          <t>72814</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>93070</t>
+          <t>92845</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7857,12 +7857,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>41,44%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -7877,12 +7877,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>104364</t>
+          <t>104769</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>127316</t>
+          <t>128113</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>37,0%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>44,97%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>182847</t>
+          <t>183098</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>212871</t>
+          <t>214558</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7927,12 +7927,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>41,93%</t>
+          <t>42,26%</t>
         </is>
       </c>
     </row>
@@ -7955,12 +7955,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42244</t>
+          <t>42914</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59717</t>
+          <t>59945</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -7970,12 +7970,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -7990,12 +7990,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>57221</t>
+          <t>56429</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77901</t>
+          <t>78723</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -8005,12 +8005,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -8025,12 +8025,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>104509</t>
+          <t>105054</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>131932</t>
+          <t>132278</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -8040,12 +8040,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>26,05%</t>
         </is>
       </c>
     </row>
@@ -8068,12 +8068,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>80275</t>
+          <t>82367</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>101286</t>
+          <t>101638</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -8083,12 +8083,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -8103,12 +8103,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>88346</t>
+          <t>88738</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>110873</t>
+          <t>111126</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -8118,12 +8118,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>39,25%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -8138,12 +8138,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>175520</t>
+          <t>175515</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>205160</t>
+          <t>206523</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>40,67%</t>
         </is>
       </c>
     </row>
@@ -8298,12 +8298,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>207513</t>
+          <t>207284</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>244316</t>
+          <t>245508</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -8313,12 +8313,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -8333,12 +8333,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>269261</t>
+          <t>268884</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>307569</t>
+          <t>306913</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -8348,12 +8348,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -8368,12 +8368,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>487231</t>
+          <t>484370</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>540311</t>
+          <t>538830</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -8383,12 +8383,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>37,49%</t>
         </is>
       </c>
     </row>
@@ -8411,12 +8411,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>136539</t>
+          <t>136227</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>167292</t>
+          <t>168494</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -8426,12 +8426,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -8446,12 +8446,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>144468</t>
+          <t>145350</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>176380</t>
+          <t>176529</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -8461,12 +8461,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -8481,12 +8481,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>289499</t>
+          <t>287861</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>334606</t>
+          <t>336198</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -8496,12 +8496,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>23,39%</t>
         </is>
       </c>
     </row>
@@ -8524,12 +8524,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>283703</t>
+          <t>283076</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>324290</t>
+          <t>322988</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8539,12 +8539,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>41,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>47,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -8559,12 +8559,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>288815</t>
+          <t>289931</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>328862</t>
+          <t>329984</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8574,12 +8574,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>38,3%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -8594,12 +8594,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>585193</t>
+          <t>586006</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>641252</t>
+          <t>641825</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8609,12 +8609,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>40,71%</t>
+          <t>40,77%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>44,65%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_RUIDO_INT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_RUIDO_INT-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción del ruido en el interior de la vivienda en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,37 +731,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6901</t>
+          <t>22194</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>13893</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9129</t>
+          <t>31359</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,67 +771,67 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7788</t>
+          <t>33792</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5748</t>
+          <t>25109</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10060</t>
+          <t>45455</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>14689</t>
+          <t>55985</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>11764</t>
+          <t>43719</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>17956</t>
+          <t>72938</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>10,6%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17035</t>
+          <t>50302</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14006</t>
+          <t>39632</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20237</t>
+          <t>64248</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22920</t>
+          <t>91921</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19366</t>
+          <t>78616</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26877</t>
+          <t>105715</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>202</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>39955</t>
+          <t>142224</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>35111</t>
+          <t>126190</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>44875</t>
+          <t>161912</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>23,52%</t>
         </is>
       </c>
     </row>
@@ -957,107 +957,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58788</t>
+          <t>181953</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>55449</t>
+          <t>167542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62264</t>
+          <t>195295</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>71,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,03%</t>
+          <t>65,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>76,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>502</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>87182</t>
+          <t>308131</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>83161</t>
+          <t>292266</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>91127</t>
+          <t>322075</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>73,95%</t>
+          <t>71,02%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>70,54%</t>
+          <t>67,37%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>77,3%</t>
+          <t>74,24%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>710</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>145971</t>
+          <t>490084</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>140760</t>
+          <t>468032</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>151403</t>
+          <t>508510</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>71,2%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>68,0%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>75,47%</t>
+          <t>73,88%</t>
         </is>
       </c>
     </row>
@@ -1070,22 +1070,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>254449</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>254449</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>254449</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>697</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>433844</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>433844</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>433844</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1140,22 +1140,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>688293</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>688293</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>688293</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40087</t>
+          <t>73773</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35001</t>
+          <t>57027</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46039</t>
+          <t>95201</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>37810</t>
+          <t>93629</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>32953</t>
+          <t>76632</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>43166</t>
+          <t>114333</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>173</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>77897</t>
+          <t>167402</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>70745</t>
+          <t>143209</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>86224</t>
+          <t>194861</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>7,62%</t>
         </is>
       </c>
     </row>
@@ -1300,107 +1300,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90361</t>
+          <t>267520</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83388</t>
+          <t>232902</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>98848</t>
+          <t>297220</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80374</t>
+          <t>270360</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73713</t>
+          <t>247793</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>87450</t>
+          <t>304786</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>968</t>
+          <t>570</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>170735</t>
+          <t>537880</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>158694</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>180878</t>
+          <t>582519</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>22,77%</t>
         </is>
       </c>
     </row>
@@ -1413,107 +1413,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>808</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>337767</t>
+          <t>946394</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>328575</t>
+          <t>910580</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>345990</t>
+          <t>982912</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>73,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,18%</t>
+          <t>70,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>73,9%</t>
+          <t>76,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>330739</t>
+          <t>906515</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>322581</t>
+          <t>870275</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>338810</t>
+          <t>934091</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>73,67%</t>
+          <t>71,35%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>71,86%</t>
+          <t>68,5%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>75,47%</t>
+          <t>73,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>3772</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>668505</t>
+          <t>1852909</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>655714</t>
+          <t>1804849</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>681514</t>
+          <t>1894611</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>72,89%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>71,5%</t>
+          <t>70,55%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>74,31%</t>
+          <t>74,06%</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1526,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1561,22 +1561,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>1270504</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>1270504</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>1270504</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1596,22 +1596,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>2558191</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>2558191</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>2558191</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1643,107 +1643,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18013</t>
+          <t>31898</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14491</t>
+          <t>22601</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21784</t>
+          <t>46788</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>23953</t>
+          <t>49093</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>20175</t>
+          <t>39704</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>29488</t>
+          <t>63660</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>99</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>41966</t>
+          <t>80992</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>36361</t>
+          <t>66678</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>47835</t>
+          <t>100812</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>10,03%</t>
         </is>
       </c>
     </row>
@@ -1756,107 +1756,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34162</t>
+          <t>124761</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29449</t>
+          <t>105328</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39147</t>
+          <t>147769</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>28,98%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44753</t>
+          <t>110662</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>39403</t>
+          <t>93486</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51210</t>
+          <t>127568</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>22,35%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>261</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>78915</t>
+          <t>235422</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>71048</t>
+          <t>208357</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>85896</t>
+          <t>263629</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>26,23%</t>
         </is>
       </c>
     </row>
@@ -1869,107 +1869,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>132409</t>
+          <t>353220</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>126821</t>
+          <t>329849</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>138208</t>
+          <t>375907</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>71,73%</t>
+          <t>69,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,71%</t>
+          <t>64,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>74,88%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>454</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>172749</t>
+          <t>335405</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>165464</t>
+          <t>317130</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>179679</t>
+          <t>355136</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>67,74%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>68,53%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>71,72%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>792</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>305158</t>
+          <t>688625</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>296735</t>
+          <t>660139</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>314004</t>
+          <t>717441</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>71,63%</t>
+          <t>68,52%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>69,65%</t>
+          <t>65,68%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>73,7%</t>
+          <t>71,38%</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>665</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>495160</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>495160</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>495160</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2052,22 +2052,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>1005039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>1005039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>1005039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2099,107 +2099,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>65001</t>
+          <t>127865</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>58589</t>
+          <t>106224</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>72580</t>
+          <t>154768</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>225</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>69551</t>
+          <t>176514</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>62470</t>
+          <t>153041</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>77223</t>
+          <t>200082</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>346</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>134552</t>
+          <t>304379</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>124492</t>
+          <t>269549</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>144732</t>
+          <t>339547</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>7,99%</t>
         </is>
       </c>
     </row>
@@ -2212,107 +2212,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>412</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>141558</t>
+          <t>442583</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>131709</t>
+          <t>402588</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>150748</t>
+          <t>485555</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>621</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>148047</t>
+          <t>472943</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>139455</t>
+          <t>438137</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>158431</t>
+          <t>512859</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>289605</t>
+          <t>915526</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>277048</t>
+          <t>854512</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>303236</t>
+          <t>969325</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>22,8%</t>
         </is>
       </c>
     </row>
@@ -2325,107 +2325,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2948</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>528964</t>
+          <t>1481567</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>517580</t>
+          <t>1434468</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>540288</t>
+          <t>1524876</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>72,2%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>70,37%</t>
+          <t>69,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>73,46%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3263</t>
+          <t>2155</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>590670</t>
+          <t>1550051</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>580098</t>
+          <t>1506314</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>601600</t>
+          <t>1588875</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>73,08%</t>
+          <t>70,47%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>71,77%</t>
+          <t>68,48%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>72,24%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>6211</t>
+          <t>3509</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>1119634</t>
+          <t>3031618</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>1104467</t>
+          <t>2968273</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>1134849</t>
+          <t>3094698</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>72,52%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>69,82%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>73,51%</t>
+          <t>72,79%</t>
         </is>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>2052015</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>2052015</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>2052015</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2473,22 +2473,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>3001</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>2199508</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>2199508</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>2199508</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2508,22 +2508,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>8561</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>4251523</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>4251523</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>4251523</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2609,7 +2609,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en Andalucia (tasa de respuesta: 99,88%)</t>
+          <t>Percepción del ruido en el interior de la vivienda en Barcelona (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2794,107 +2794,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20027</t>
+          <t>31217</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12350</t>
+          <t>22163</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28366</t>
+          <t>42145</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29461</t>
+          <t>36677</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21897</t>
+          <t>28450</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>39441</t>
+          <t>46578</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>146</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>49488</t>
+          <t>67894</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>38800</t>
+          <t>55644</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>64706</t>
+          <t>81725</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>37,52%</t>
         </is>
       </c>
     </row>
@@ -2907,107 +2907,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44494</t>
+          <t>12259</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35042</t>
+          <t>7434</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57337</t>
+          <t>19322</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81411</t>
+          <t>16470</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>10985</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>95081</t>
+          <t>24622</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>125905</t>
+          <t>28729</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>110006</t>
+          <t>21655</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>142885</t>
+          <t>39166</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>17,98%</t>
         </is>
       </c>
     </row>
@@ -3020,107 +3020,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162918</t>
+          <t>55079</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>149272</t>
+          <t>44966</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>174920</t>
+          <t>65841</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>71,63%</t>
+          <t>55,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>65,63%</t>
+          <t>45,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>76,91%</t>
+          <t>66,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>287045</t>
+          <t>66117</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>271468</t>
+          <t>55985</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>300316</t>
+          <t>75334</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>55,44%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>68,22%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>75,47%</t>
+          <t>63,17%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>262</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>449963</t>
+          <t>121195</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>106246</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>468832</t>
+          <t>134500</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>55,64%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>69,05%</t>
+          <t>48,78%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>74,97%</t>
+          <t>61,75%</t>
         </is>
       </c>
     </row>
@@ -3133,22 +3133,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>227439</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>227439</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>227439</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3168,22 +3168,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>296</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>397917</t>
+          <t>119264</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>397917</t>
+          <t>119264</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>397917</t>
+          <t>119264</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3203,22 +3203,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>491</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>625356</t>
+          <t>217818</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>625356</t>
+          <t>217818</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>625356</t>
+          <t>217818</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3250,107 +3250,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>63181</t>
+          <t>112089</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33672</t>
+          <t>99797</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87051</t>
+          <t>123888</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>307</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>79781</t>
+          <t>135341</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>47528</t>
+          <t>122905</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>149869</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>38,17%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>564</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>142961</t>
+          <t>247430</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>101307</t>
+          <t>230038</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>179369</t>
+          <t>264461</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>34,76%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>32,32%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>37,15%</t>
         </is>
       </c>
     </row>
@@ -3363,107 +3363,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>238870</t>
+          <t>87409</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>140240</t>
+          <t>77342</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>304399</t>
+          <t>99438</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>440454</t>
+          <t>76313</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>262632</t>
+          <t>66933</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>820894</t>
+          <t>88324</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>377</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>679324</t>
+          <t>163722</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>472366</t>
+          <t>148287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1224522</t>
+          <t>180022</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>25,29%</t>
         </is>
       </c>
     </row>
@@ -3476,107 +3476,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1107342</t>
+          <t>157765</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1028283</t>
+          <t>146326</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1230884</t>
+          <t>171318</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>78,57%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,96%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>47,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>323</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>865397</t>
+          <t>142935</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>523601</t>
+          <t>129881</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1031367</t>
+          <t>156335</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>62,46%</t>
+          <t>40,31%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>44,09%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>664</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>1972739</t>
+          <t>300700</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1488627</t>
+          <t>282029</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>2188548</t>
+          <t>319638</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>70,58%</t>
+          <t>42,24%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>53,26%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>78,3%</t>
+          <t>44,9%</t>
         </is>
       </c>
     </row>
@@ -3589,22 +3589,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>796</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>357262</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3624,22 +3624,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>809</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1385632</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1385632</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1385632</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3659,22 +3659,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>2795025</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>2795025</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>2795025</t>
+          <t>711852</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3706,107 +3706,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>27589</t>
+          <t>82416</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19467</t>
+          <t>72814</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40766</t>
+          <t>92845</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>324</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>43395</t>
+          <t>116051</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>34132</t>
+          <t>104769</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>56125</t>
+          <t>128113</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>37,0%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>565</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>70984</t>
+          <t>198467</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>57167</t>
+          <t>183098</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>89034</t>
+          <t>214558</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>42,26%</t>
         </is>
       </c>
     </row>
@@ -3819,107 +3819,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>109919</t>
+          <t>51076</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>91722</t>
+          <t>42914</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>130175</t>
+          <t>59945</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>99144</t>
+          <t>67584</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>84276</t>
+          <t>56429</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>115582</t>
+          <t>78723</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>319</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>209063</t>
+          <t>118659</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>184999</t>
+          <t>105054</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>234427</t>
+          <t>132278</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>26,05%</t>
         </is>
       </c>
     </row>
@@ -3932,107 +3932,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>322293</t>
+          <t>91118</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>300990</t>
+          <t>82367</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>342610</t>
+          <t>101638</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>70,09%</t>
+          <t>40,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>65,46%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>74,51%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>268</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>300105</t>
+          <t>99497</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>282012</t>
+          <t>88738</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>317059</t>
+          <t>111126</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>67,8%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>63,71%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>71,63%</t>
+          <t>39,25%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>521</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>622398</t>
+          <t>190614</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>594994</t>
+          <t>175515</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>648810</t>
+          <t>206523</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>68,97%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>65,93%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>71,89%</t>
+          <t>40,67%</t>
         </is>
       </c>
     </row>
@@ -4045,22 +4045,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4080,22 +4080,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>762</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>442644</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>442644</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>442644</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4115,22 +4115,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>902445</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>902445</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>902445</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4162,107 +4162,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>557</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>110797</t>
+          <t>225723</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>72123</t>
+          <t>207284</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>140185</t>
+          <t>245508</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>33,17%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>718</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>152636</t>
+          <t>288069</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>109876</t>
+          <t>268884</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>179641</t>
+          <t>306913</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>38,05%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>263433</t>
+          <t>513792</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>211974</t>
+          <t>484370</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>305357</t>
+          <t>538830</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>37,49%</t>
         </is>
       </c>
     </row>
@@ -4275,107 +4275,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>393283</t>
+          <t>150744</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>258202</t>
+          <t>136227</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>460562</t>
+          <t>168494</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>395</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>621010</t>
+          <t>160367</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>445134</t>
+          <t>145350</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1069427</t>
+          <t>176529</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>48,04%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>779</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>1014293</t>
+          <t>311110</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>802804</t>
+          <t>287861</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>1569683</t>
+          <t>336198</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>36,31%</t>
+          <t>23,39%</t>
         </is>
       </c>
     </row>
@@ -4388,107 +4388,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>693</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1592554</t>
+          <t>303962</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1508308</t>
+          <t>283076</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1761885</t>
+          <t>322988</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>75,96%</t>
+          <t>44,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>71,94%</t>
+          <t>41,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>84,03%</t>
+          <t>47,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2155</t>
+          <t>754</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1452547</t>
+          <t>308548</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>1037921</t>
+          <t>289931</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>1615945</t>
+          <t>329984</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>65,25%</t>
+          <t>40,76%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>46,62%</t>
+          <t>38,3%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>72,59%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>3509</t>
+          <t>1447</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>3045100</t>
+          <t>612510</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>2563417</t>
+          <t>586006</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>3262504</t>
+          <t>641825</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>70,44%</t>
+          <t>42,61%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>59,3%</t>
+          <t>40,77%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>75,47%</t>
+          <t>44,65%</t>
         </is>
       </c>
     </row>
@@ -4501,22 +4501,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2096633</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2096633</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2096633</t>
+          <t>680428</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4536,22 +4536,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3001</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2226193</t>
+          <t>756984</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2226193</t>
+          <t>756984</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2226193</t>
+          <t>756984</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -4571,22 +4571,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4322826</t>
+          <t>1437412</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4322826</t>
+          <t>1437412</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4322826</t>
+          <t>1437412</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -6735,7 +6735,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en Barcelona (tasa de respuesta: 99,97%)</t>
+          <t>Percepción del ruido en el interior de la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6920,107 +6920,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31217</t>
+          <t>6901</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22163</t>
+          <t>5015</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>42145</t>
+          <t>9129</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36677</t>
+          <t>7788</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28450</t>
+          <t>5748</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>46578</t>
+          <t>10060</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>93</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>67894</t>
+          <t>14689</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>55644</t>
+          <t>11764</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>81725</t>
+          <t>17956</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>31,17%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
@@ -7033,107 +7033,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12259</t>
+          <t>17035</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7434</t>
+          <t>14006</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19322</t>
+          <t>20237</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16470</t>
+          <t>22920</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10985</t>
+          <t>19366</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24622</t>
+          <t>26877</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>248</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>28729</t>
+          <t>39955</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>21655</t>
+          <t>35111</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>39166</t>
+          <t>44875</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>22,37%</t>
         </is>
       </c>
     </row>
@@ -7146,107 +7146,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>55079</t>
+          <t>58788</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44966</t>
+          <t>55449</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>65841</t>
+          <t>62264</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>71,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>67,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>66,81%</t>
+          <t>75,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>560</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66117</t>
+          <t>87182</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>55985</t>
+          <t>83161</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>75334</t>
+          <t>91127</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>55,44%</t>
+          <t>73,95%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>70,54%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>63,17%</t>
+          <t>77,3%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>925</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>121195</t>
+          <t>145971</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>106246</t>
+          <t>140760</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>134500</t>
+          <t>151403</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>72,76%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>61,75%</t>
+          <t>75,47%</t>
         </is>
       </c>
     </row>
@@ -7259,22 +7259,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -7294,22 +7294,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>119264</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>119264</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>119264</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -7329,22 +7329,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>217818</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>217818</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>217818</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -7376,107 +7376,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>112089</t>
+          <t>40087</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99797</t>
+          <t>35001</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>123888</t>
+          <t>46039</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,68%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>135341</t>
+          <t>37810</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>122905</t>
+          <t>32953</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>149869</t>
+          <t>43166</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>433</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>247430</t>
+          <t>77897</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>230038</t>
+          <t>70745</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>264461</t>
+          <t>86224</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>9,4%</t>
         </is>
       </c>
     </row>
@@ -7489,107 +7489,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>505</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87409</t>
+          <t>90361</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77342</t>
+          <t>83388</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>99438</t>
+          <t>98848</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>463</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>76313</t>
+          <t>80374</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>66933</t>
+          <t>73713</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88324</t>
+          <t>87450</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>968</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>163722</t>
+          <t>170735</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>148287</t>
+          <t>158694</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>180022</t>
+          <t>180878</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>19,72%</t>
         </is>
       </c>
     </row>
@@ -7602,107 +7602,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>157765</t>
+          <t>337767</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>146326</t>
+          <t>328575</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>171318</t>
+          <t>345990</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>70,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,95%</t>
+          <t>73,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>142935</t>
+          <t>330739</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>129881</t>
+          <t>322581</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>156335</t>
+          <t>338810</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>73,67%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>71,86%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>3772</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>300700</t>
+          <t>668505</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>282029</t>
+          <t>655714</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>319638</t>
+          <t>681514</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>72,89%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>71,5%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>44,9%</t>
+          <t>74,31%</t>
         </is>
       </c>
     </row>
@@ -7715,22 +7715,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>357262</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -7750,22 +7750,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -7785,22 +7785,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>5173</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>711852</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -7832,107 +7832,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>82416</t>
+          <t>18013</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>72814</t>
+          <t>14491</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>92845</t>
+          <t>21784</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>116051</t>
+          <t>23953</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>104769</t>
+          <t>20175</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>128113</t>
+          <t>29488</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>206</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>198467</t>
+          <t>41966</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>183098</t>
+          <t>36361</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214558</t>
+          <t>47835</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>11,23%</t>
         </is>
       </c>
     </row>
@@ -7945,107 +7945,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51076</t>
+          <t>34162</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42914</t>
+          <t>29449</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59945</t>
+          <t>39147</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>229</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>67584</t>
+          <t>44753</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56429</t>
+          <t>39403</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>78723</t>
+          <t>51210</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>118659</t>
+          <t>78915</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>105054</t>
+          <t>71048</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>132278</t>
+          <t>85896</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>20,16%</t>
         </is>
       </c>
     </row>
@@ -8058,107 +8058,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>653</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>91118</t>
+          <t>132409</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>82367</t>
+          <t>126821</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>101638</t>
+          <t>138208</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>71,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>68,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>74,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>861</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>99497</t>
+          <t>172749</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>88738</t>
+          <t>165464</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>111126</t>
+          <t>179679</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>68,53%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>74,42%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>190614</t>
+          <t>305158</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>175515</t>
+          <t>296735</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>206523</t>
+          <t>314004</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>37,54%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>69,65%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>73,7%</t>
         </is>
       </c>
     </row>
@@ -8171,22 +8171,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -8206,22 +8206,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8241,22 +8241,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8288,107 +8288,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>225723</t>
+          <t>65001</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>207284</t>
+          <t>58589</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>245508</t>
+          <t>72580</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>381</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>288069</t>
+          <t>69551</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>268884</t>
+          <t>62470</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>306913</t>
+          <t>77223</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>732</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>513792</t>
+          <t>134552</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>484370</t>
+          <t>124492</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>538830</t>
+          <t>144732</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>9,38%</t>
         </is>
       </c>
     </row>
@@ -8401,107 +8401,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>778</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>150744</t>
+          <t>141558</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>136227</t>
+          <t>131709</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>168494</t>
+          <t>150748</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>840</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>160367</t>
+          <t>148047</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>145350</t>
+          <t>139455</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>176529</t>
+          <t>158431</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>311110</t>
+          <t>289605</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>287861</t>
+          <t>277048</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>336198</t>
+          <t>303236</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>19,64%</t>
         </is>
       </c>
     </row>
@@ -8514,107 +8514,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>303962</t>
+          <t>528964</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>283076</t>
+          <t>517580</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>322988</t>
+          <t>540288</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>44,67%</t>
+          <t>71,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>70,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>47,47%</t>
+          <t>73,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>3263</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>308548</t>
+          <t>590670</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>289931</t>
+          <t>580098</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>329984</t>
+          <t>601600</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>73,08%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>71,77%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>43,59%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1447</t>
+          <t>6211</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>612510</t>
+          <t>1119634</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>586006</t>
+          <t>1104467</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>641825</t>
+          <t>1134849</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>72,52%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>44,65%</t>
+          <t>73,51%</t>
         </is>
       </c>
     </row>
@@ -8627,22 +8627,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>680428</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -8662,22 +8662,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>756984</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>756984</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>756984</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -8697,22 +8697,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>3501</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1437412</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1437412</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1437412</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
